--- a/table.xlsx
+++ b/table.xlsx
@@ -480,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +491,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,9 @@
       <c r="D5" s="4">
         <v>3000</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>55</v>
+      </c>
       <c r="F5" s="4">
         <v>2000</v>
       </c>

--- a/table.xlsx
+++ b/table.xlsx
@@ -950,7 +950,7 @@
       </c>
       <c r="BA2" s="7" t="inlineStr">
         <is>
-          <t>это комментарий</t>
+          <t>это что-то комментарий</t>
         </is>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -950,7 +950,7 @@
       </c>
       <c r="BA2" s="7" t="inlineStr">
         <is>
-          <t>это что-то комментарий</t>
+          <t>это случайно коммента</t>
         </is>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Проволока ВТ1-00св ф 3,0 мм</t>
+  </si>
+  <si>
+    <t>временный синоним</t>
   </si>
 </sst>
 </file>
@@ -978,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1068,9 @@
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1122,9 @@
       <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
         <v>24</v>
@@ -1167,7 +1174,9 @@
       <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="3" t="s">
         <v>24</v>
@@ -1217,7 +1226,9 @@
       <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
@@ -1265,7 +1276,9 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="3" t="s">
         <v>24</v>
@@ -1315,7 +1328,9 @@
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
@@ -1363,7 +1378,9 @@
       <c r="G8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
@@ -2061,7 +2078,9 @@
       <c r="G21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="3" t="s">
         <v>62</v>
@@ -2113,7 +2132,9 @@
       <c r="G22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3" t="s">
         <v>66</v>
@@ -2163,7 +2184,9 @@
       <c r="G23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3" t="s">
         <v>24</v>
@@ -2215,7 +2238,9 @@
       <c r="G24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3" t="s">
         <v>24</v>
@@ -2267,7 +2292,9 @@
       <c r="G25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="3" t="s">
         <v>24</v>
@@ -2319,7 +2346,9 @@
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3" t="s">
         <v>24</v>
@@ -2371,7 +2400,9 @@
       <c r="G27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="3" t="s">
         <v>24</v>
@@ -2423,7 +2454,9 @@
       <c r="G28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="3" t="s">
         <v>24</v>
@@ -2475,7 +2508,9 @@
       <c r="G29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -2527,7 +2562,9 @@
       <c r="G30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="3" t="s">
         <v>24</v>
@@ -2579,7 +2616,9 @@
       <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="3" t="s">
         <v>24</v>
@@ -2631,7 +2670,9 @@
       <c r="G32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="3" t="s">
         <v>24</v>
@@ -2683,7 +2724,9 @@
       <c r="G33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="3" t="s">
         <v>24</v>
@@ -2735,7 +2778,9 @@
       <c r="G34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="3" t="s">
         <v>24</v>
@@ -2787,7 +2832,9 @@
       <c r="G35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="3" t="s">
         <v>24</v>
@@ -2839,7 +2886,9 @@
       <c r="G36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="3" t="s">
         <v>24</v>
@@ -2891,7 +2940,9 @@
       <c r="G37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="3" t="s">
         <v>24</v>
@@ -2943,7 +2994,9 @@
       <c r="G38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3" t="s">
         <v>24</v>
@@ -2995,7 +3048,9 @@
       <c r="G39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="3" t="s">
         <v>24</v>
@@ -3047,7 +3102,9 @@
       <c r="G40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="3" t="s">
         <v>24</v>
@@ -3099,7 +3156,9 @@
       <c r="G41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="3" t="s">
         <v>24</v>
@@ -3151,7 +3210,9 @@
       <c r="G42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -3203,7 +3264,9 @@
       <c r="G43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="3" t="s">
         <v>24</v>
@@ -3255,7 +3318,9 @@
       <c r="G44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="3" t="s">
         <v>24</v>
@@ -3307,7 +3372,9 @@
       <c r="G45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="3" t="s">
         <v>24</v>
@@ -3359,7 +3426,9 @@
       <c r="G46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="3" t="s">
         <v>24</v>
@@ -3411,7 +3480,9 @@
       <c r="G47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="3" t="s">
         <v>24</v>
@@ -3463,7 +3534,9 @@
       <c r="G48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
         <v>24</v>
@@ -3515,7 +3588,9 @@
       <c r="G49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
         <v>24</v>
@@ -3567,7 +3642,9 @@
       <c r="G50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
         <v>24</v>
@@ -3619,7 +3696,9 @@
       <c r="G51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
         <v>91</v>
@@ -3671,7 +3750,9 @@
       <c r="G52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="3" t="s">
         <v>94</v>
@@ -3723,7 +3804,9 @@
       <c r="G53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="3" t="s">
         <v>94</v>
@@ -3991,7 +4074,9 @@
       <c r="G58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="3" t="s">
         <v>99</v>
@@ -4043,7 +4128,9 @@
       <c r="G59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="3" t="s">
         <v>99</v>
@@ -4311,7 +4398,9 @@
       <c r="G64" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="3" t="s">
         <v>121</v>
@@ -4741,7 +4830,9 @@
       <c r="G72" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="3" t="s">
         <v>132</v>
@@ -4791,7 +4882,9 @@
       <c r="G73" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="3" t="s">
         <v>99</v>
@@ -4841,7 +4934,9 @@
       <c r="G74" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="3" t="s">
         <v>132</v>
@@ -4891,7 +4986,9 @@
       <c r="G75" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="3" t="s">
         <v>99</v>
@@ -4943,7 +5040,9 @@
       <c r="G76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="3" t="s">
         <v>138</v>
@@ -4995,7 +5094,9 @@
       <c r="G77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="J77" s="3" t="s">
         <v>138</v>
@@ -5045,7 +5146,9 @@
       <c r="G78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="3" t="s">
         <v>142</v>
@@ -5095,7 +5198,9 @@
       <c r="G79" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="J79" s="3" t="s">
         <v>145</v>
@@ -5145,7 +5250,9 @@
       <c r="G80" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="3" t="s">
         <v>147</v>
@@ -5195,7 +5302,9 @@
       <c r="G81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="3" t="s">
         <v>150</v>
@@ -5245,7 +5354,9 @@
       <c r="G82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="3" t="s">
         <v>62</v>
@@ -5295,7 +5406,9 @@
       <c r="G83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="3" t="s">
         <v>154</v>
@@ -5345,7 +5458,9 @@
       <c r="G84" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="3" t="s">
         <v>154</v>
@@ -5397,7 +5512,9 @@
       <c r="G85" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="3" t="s">
         <v>159</v>
@@ -5449,7 +5566,9 @@
       <c r="G86" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="J86" s="3" t="s">
         <v>162</v>
@@ -5501,7 +5620,9 @@
       <c r="G87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="3" t="s">
         <v>164</v>
@@ -5553,7 +5674,9 @@
       <c r="G88" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H88" s="5"/>
+      <c r="H88" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="3" t="s">
         <v>162</v>
@@ -5605,7 +5728,9 @@
       <c r="G89" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="3" t="s">
         <v>164</v>
@@ -5657,7 +5782,9 @@
       <c r="G90" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="J90" s="3" t="s">
         <v>24</v>
@@ -5709,7 +5836,9 @@
       <c r="G91" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="3" t="s">
         <v>24</v>
@@ -5761,7 +5890,9 @@
       <c r="G92" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I92" s="5"/>
       <c r="J92" s="3" t="s">
         <v>62</v>
@@ -5813,7 +5944,9 @@
       <c r="G93" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="3" t="s">
         <v>24</v>
@@ -5865,7 +5998,9 @@
       <c r="G94" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="3" t="s">
         <v>24</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>Проволока ВТ1-00св ф 3,0 мм</t>
+  </si>
+  <si>
+    <t>-54,1</t>
+  </si>
+  <si>
+    <t>-327,1</t>
+  </si>
+  <si>
+    <t>-828,8</t>
+  </si>
+  <si>
+    <t>-48</t>
   </si>
 </sst>
 </file>
@@ -758,7 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2336,8 +2350,8 @@
       <c r="L30" s="7">
         <v>0</v>
       </c>
-      <c r="M30" s="8">
-        <v>-54.1</v>
+      <c r="M30" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="N30" s="7">
         <v>54.1</v>
@@ -2390,8 +2404,8 @@
       <c r="L31" s="7">
         <v>107</v>
       </c>
-      <c r="M31" s="8">
-        <v>-327.10000000000002</v>
+      <c r="M31" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="N31" s="7">
         <v>220</v>
@@ -2444,8 +2458,8 @@
       <c r="L32" s="7">
         <v>214.2</v>
       </c>
-      <c r="M32" s="8">
-        <v>-828.8</v>
+      <c r="M32" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="N32" s="7">
         <v>618</v>
@@ -2498,8 +2512,8 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="8">
-        <v>-48</v>
+      <c r="M33" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="N33" s="7">
         <v>48</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -2582,7 +2582,7 @@
       </c>
       <c r="R27" s="10" t="inlineStr">
         <is>
-          <t>комментарий</t>
+          <t>тест</t>
         </is>
       </c>
     </row>
